--- a/database/industries/ghaza/ghegolpa/product/quarterly.xlsx
+++ b/database/industries/ghaza/ghegolpa/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghegolpa\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghegolpa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE20E91-C200-4AF7-90BD-1FB21290ED11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6C59B4-7171-49A6-BC1C-E95DC2D30AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="39">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار تولید</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -82,6 +97,9 @@
     <t>سایر / تخفیفات</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>انواع کره</t>
   </si>
   <si>
@@ -89,9 +107,6 @@
   </si>
   <si>
     <t>مقدار فروش</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>برگشت از فروش</t>
@@ -577,16 +592,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I104"/>
+  <dimension ref="B1:N104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -595,8 +610,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -607,8 +627,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -619,8 +644,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -629,8 +659,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -641,8 +676,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -653,8 +693,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -663,8 +708,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -685,8 +735,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -695,268 +760,438 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>1523</v>
+      </c>
+      <c r="F10" s="9">
+        <v>186</v>
+      </c>
+      <c r="G10" s="9">
+        <v>359</v>
+      </c>
+      <c r="H10" s="9">
+        <v>18</v>
+      </c>
+      <c r="I10" s="9">
+        <v>279</v>
+      </c>
+      <c r="J10" s="9">
         <v>-3</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>247</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>50</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>29</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>618</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>382</v>
+      </c>
+      <c r="F11" s="11">
+        <v>330</v>
+      </c>
+      <c r="G11" s="11">
+        <v>241</v>
+      </c>
+      <c r="H11" s="11">
+        <v>305</v>
+      </c>
+      <c r="I11" s="11">
+        <v>294</v>
+      </c>
+      <c r="J11" s="11">
         <v>269</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>276</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>301</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>182</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>3687</v>
+      </c>
+      <c r="F12" s="9">
+        <v>2911</v>
+      </c>
+      <c r="G12" s="9">
+        <v>3536</v>
+      </c>
+      <c r="H12" s="9">
+        <v>4215</v>
+      </c>
+      <c r="I12" s="9">
+        <v>4652</v>
+      </c>
+      <c r="J12" s="9">
         <v>3027</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>3326</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>3847</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>3450</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>2486</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>223</v>
+      </c>
+      <c r="F13" s="11">
+        <v>240</v>
+      </c>
+      <c r="G13" s="11">
+        <v>229</v>
+      </c>
+      <c r="H13" s="11">
+        <v>230</v>
+      </c>
+      <c r="I13" s="11">
+        <v>194</v>
+      </c>
+      <c r="J13" s="11">
         <v>219</v>
       </c>
-      <c r="F13" s="11">
+      <c r="K13" s="11">
         <v>203</v>
       </c>
-      <c r="G13" s="11">
+      <c r="L13" s="11">
         <v>291</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>73</v>
       </c>
-      <c r="I13" s="11">
+      <c r="N13" s="11">
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
+        <v>2860</v>
+      </c>
+      <c r="F14" s="9">
+        <v>3015</v>
+      </c>
+      <c r="G14" s="9">
+        <v>3397</v>
+      </c>
+      <c r="H14" s="9">
+        <v>2969</v>
+      </c>
+      <c r="I14" s="9">
+        <v>2592</v>
+      </c>
+      <c r="J14" s="9">
         <v>2778</v>
       </c>
-      <c r="F14" s="9">
+      <c r="K14" s="9">
         <v>2336</v>
       </c>
-      <c r="G14" s="9">
+      <c r="L14" s="9">
         <v>1735</v>
       </c>
-      <c r="H14" s="9">
+      <c r="M14" s="9">
         <v>2493</v>
       </c>
-      <c r="I14" s="9">
+      <c r="N14" s="9">
         <v>2079</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>11</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
+        <v>278</v>
+      </c>
+      <c r="F15" s="11">
+        <v>470</v>
+      </c>
+      <c r="G15" s="11">
+        <v>505</v>
+      </c>
+      <c r="H15" s="11">
+        <v>147</v>
+      </c>
+      <c r="I15" s="11">
+        <v>217</v>
+      </c>
+      <c r="J15" s="11">
         <v>427</v>
       </c>
-      <c r="F15" s="11">
+      <c r="K15" s="11">
         <v>462</v>
       </c>
-      <c r="G15" s="11">
+      <c r="L15" s="11">
         <v>278</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>356</v>
       </c>
-      <c r="I15" s="11">
+      <c r="N15" s="11">
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>1446</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1756</v>
+      </c>
+      <c r="G16" s="9">
+        <v>2435</v>
+      </c>
+      <c r="H16" s="9">
+        <v>1908</v>
+      </c>
+      <c r="I16" s="9">
+        <v>1663</v>
+      </c>
+      <c r="J16" s="9">
         <v>2029</v>
       </c>
-      <c r="F16" s="9">
+      <c r="K16" s="9">
         <v>1617</v>
       </c>
-      <c r="G16" s="9">
+      <c r="L16" s="9">
         <v>1481</v>
       </c>
-      <c r="H16" s="9">
+      <c r="M16" s="9">
         <v>1725</v>
       </c>
-      <c r="I16" s="9">
+      <c r="N16" s="9">
         <v>2253</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
+        <v>559</v>
+      </c>
+      <c r="F17" s="11">
+        <v>656</v>
+      </c>
+      <c r="G17" s="11">
+        <v>3834</v>
+      </c>
+      <c r="H17" s="11">
+        <v>789</v>
+      </c>
+      <c r="I17" s="11">
+        <v>265</v>
+      </c>
+      <c r="J17" s="11">
         <v>868</v>
       </c>
-      <c r="F17" s="11">
+      <c r="K17" s="11">
         <v>724</v>
       </c>
-      <c r="G17" s="11">
+      <c r="L17" s="11">
         <v>513</v>
       </c>
-      <c r="H17" s="11">
+      <c r="M17" s="11">
         <v>791</v>
       </c>
-      <c r="I17" s="11">
+      <c r="N17" s="11">
         <v>495</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="9">
-        <v>0</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0</v>
-      </c>
-      <c r="G18" s="9">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0</v>
+      <c r="E18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="I18" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
+        <v>-24</v>
+      </c>
+      <c r="F19" s="11">
+        <v>-19</v>
+      </c>
+      <c r="G19" s="11">
+        <v>78</v>
+      </c>
+      <c r="H19" s="11">
+        <v>43</v>
+      </c>
+      <c r="I19" s="11">
+        <v>-4</v>
+      </c>
+      <c r="J19" s="11">
         <v>102</v>
       </c>
-      <c r="F19" s="11">
+      <c r="K19" s="11">
         <v>38</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>39</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>125</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
+        <v>10934</v>
+      </c>
+      <c r="F20" s="13">
+        <v>9545</v>
+      </c>
+      <c r="G20" s="13">
+        <v>14614</v>
+      </c>
+      <c r="H20" s="13">
+        <v>10624</v>
+      </c>
+      <c r="I20" s="13">
+        <v>10152</v>
+      </c>
+      <c r="J20" s="13">
         <v>9716</v>
       </c>
-      <c r="F20" s="13">
+      <c r="K20" s="13">
         <v>9229</v>
       </c>
-      <c r="G20" s="13">
+      <c r="L20" s="13">
         <v>8535</v>
       </c>
-      <c r="H20" s="13">
+      <c r="M20" s="13">
         <v>9224</v>
       </c>
-      <c r="I20" s="13">
+      <c r="N20" s="13">
         <v>8420</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -965,8 +1200,13 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -975,8 +1215,13 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -985,10 +1230,15 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1007,8 +1257,23 @@
       <c r="I24" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1017,292 +1282,477 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9">
+        <v>1547</v>
+      </c>
+      <c r="F26" s="9">
+        <v>2014</v>
+      </c>
+      <c r="G26" s="9">
+        <v>-1470</v>
+      </c>
+      <c r="H26" s="9">
+        <v>18</v>
+      </c>
+      <c r="I26" s="9">
+        <v>279</v>
+      </c>
+      <c r="J26" s="9">
         <v>1559</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="9">
+      <c r="K26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" s="9">
         <v>51</v>
       </c>
-      <c r="H26" s="9">
+      <c r="M26" s="9">
         <v>26</v>
       </c>
-      <c r="I26" s="9">
+      <c r="N26" s="9">
         <v>713</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D27" s="11"/>
-      <c r="E27" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>23</v>
+      <c r="E27" s="11">
+        <v>-88</v>
+      </c>
+      <c r="F27" s="11">
+        <v>-30</v>
+      </c>
+      <c r="G27" s="11">
+        <v>-57</v>
+      </c>
+      <c r="H27" s="11">
+        <v>-33</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9">
+        <v>386</v>
+      </c>
+      <c r="F28" s="9">
+        <v>336</v>
+      </c>
+      <c r="G28" s="9">
+        <v>248</v>
+      </c>
+      <c r="H28" s="9">
+        <v>305</v>
+      </c>
+      <c r="I28" s="9">
+        <v>300</v>
+      </c>
+      <c r="J28" s="9">
         <v>274</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="9">
+      <c r="K28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="9">
         <v>306</v>
       </c>
-      <c r="H28" s="9">
+      <c r="M28" s="9">
         <v>172</v>
       </c>
-      <c r="I28" s="9">
+      <c r="N28" s="9">
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11">
+        <v>3668</v>
+      </c>
+      <c r="F29" s="11">
+        <v>2977</v>
+      </c>
+      <c r="G29" s="11">
+        <v>3520</v>
+      </c>
+      <c r="H29" s="11">
+        <v>4185</v>
+      </c>
+      <c r="I29" s="11">
+        <v>4712</v>
+      </c>
+      <c r="J29" s="11">
         <v>3023</v>
       </c>
-      <c r="F29" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" s="11">
+      <c r="K29" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="11">
         <v>3860</v>
       </c>
-      <c r="H29" s="11">
+      <c r="M29" s="11">
         <v>3389</v>
       </c>
-      <c r="I29" s="11">
+      <c r="N29" s="11">
         <v>2595</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9">
+        <v>222</v>
+      </c>
+      <c r="F30" s="9">
+        <v>233</v>
+      </c>
+      <c r="G30" s="9">
+        <v>236</v>
+      </c>
+      <c r="H30" s="9">
+        <v>226</v>
+      </c>
+      <c r="I30" s="9">
+        <v>198</v>
+      </c>
+      <c r="J30" s="9">
         <v>211</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="9">
+      <c r="K30" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" s="9">
         <v>197</v>
       </c>
-      <c r="H30" s="9">
+      <c r="M30" s="9">
         <v>164</v>
       </c>
-      <c r="I30" s="9">
+      <c r="N30" s="9">
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11">
+        <v>2883</v>
+      </c>
+      <c r="F31" s="11">
+        <v>3379</v>
+      </c>
+      <c r="G31" s="11">
+        <v>3071</v>
+      </c>
+      <c r="H31" s="11">
+        <v>2936</v>
+      </c>
+      <c r="I31" s="11">
+        <v>2660</v>
+      </c>
+      <c r="J31" s="11">
         <v>2573</v>
       </c>
-      <c r="F31" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="11">
+      <c r="K31" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" s="11">
         <v>2036</v>
       </c>
-      <c r="H31" s="11">
+      <c r="M31" s="11">
         <v>2047</v>
       </c>
-      <c r="I31" s="11">
+      <c r="N31" s="11">
         <v>2253</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9">
+        <v>469</v>
+      </c>
+      <c r="F32" s="9">
+        <v>445</v>
+      </c>
+      <c r="G32" s="9">
+        <v>501</v>
+      </c>
+      <c r="H32" s="9">
+        <v>194</v>
+      </c>
+      <c r="I32" s="9">
+        <v>170</v>
+      </c>
+      <c r="J32" s="9">
         <v>390</v>
       </c>
-      <c r="F32" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" s="9">
+      <c r="K32" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="9">
         <v>334</v>
       </c>
-      <c r="H32" s="9">
+      <c r="M32" s="9">
         <v>358</v>
       </c>
-      <c r="I32" s="9">
+      <c r="N32" s="9">
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
+        <v>1319</v>
+      </c>
+      <c r="F33" s="11">
         <v>1912</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="G33" s="11">
+        <v>2248</v>
+      </c>
+      <c r="H33" s="11">
+        <v>2001</v>
+      </c>
+      <c r="I33" s="11">
+        <v>1575</v>
+      </c>
+      <c r="J33" s="11">
+        <v>1912</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" s="11">
+        <v>1537</v>
+      </c>
+      <c r="M33" s="11">
+        <v>1586</v>
+      </c>
+      <c r="N33" s="11">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="11">
-        <v>1537</v>
-      </c>
-      <c r="H33" s="11">
-        <v>1586</v>
-      </c>
-      <c r="I33" s="11">
-        <v>2299</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="C34" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9">
+        <v>688</v>
+      </c>
+      <c r="F34" s="9">
+        <v>948</v>
+      </c>
+      <c r="G34" s="9">
+        <v>759</v>
+      </c>
+      <c r="H34" s="9">
+        <v>880</v>
+      </c>
+      <c r="I34" s="9">
+        <v>174</v>
+      </c>
+      <c r="J34" s="9">
         <v>843</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" s="9">
+      <c r="K34" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" s="9">
         <v>604</v>
       </c>
-      <c r="H34" s="9">
+      <c r="M34" s="9">
         <v>508</v>
       </c>
-      <c r="I34" s="9">
+      <c r="N34" s="9">
         <v>578</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11">
+        <v>0</v>
+      </c>
+      <c r="F35" s="11">
+        <v>120</v>
+      </c>
+      <c r="G35" s="11">
+        <v>0</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" s="11">
+        <v>-77</v>
+      </c>
+      <c r="J35" s="11">
         <v>-37</v>
       </c>
-      <c r="F35" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" s="11">
+      <c r="K35" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" s="11">
         <v>-15</v>
       </c>
-      <c r="H35" s="11">
+      <c r="M35" s="11">
         <v>-28</v>
       </c>
-      <c r="I35" s="11">
+      <c r="N35" s="11">
         <v>-9</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9">
+        <v>13</v>
+      </c>
+      <c r="F36" s="9">
+        <v>161</v>
+      </c>
+      <c r="G36" s="9">
+        <v>34</v>
+      </c>
+      <c r="H36" s="9">
+        <v>15</v>
+      </c>
+      <c r="I36" s="9">
+        <v>24</v>
+      </c>
+      <c r="J36" s="9">
         <v>20</v>
       </c>
-      <c r="F36" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" s="9">
+      <c r="K36" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" s="9">
         <v>67</v>
       </c>
-      <c r="H36" s="9">
+      <c r="M36" s="9">
         <v>30</v>
       </c>
-      <c r="I36" s="9">
+      <c r="N36" s="9">
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15">
+        <v>11107</v>
+      </c>
+      <c r="F37" s="15">
+        <v>12495</v>
+      </c>
+      <c r="G37" s="15">
+        <v>9090</v>
+      </c>
+      <c r="H37" s="15">
+        <v>10727</v>
+      </c>
+      <c r="I37" s="15">
+        <v>10015</v>
+      </c>
+      <c r="J37" s="15">
         <v>10768</v>
       </c>
-      <c r="F37" s="15">
+      <c r="K37" s="15">
         <v>0</v>
       </c>
-      <c r="G37" s="15">
+      <c r="L37" s="15">
         <v>8977</v>
       </c>
-      <c r="H37" s="15">
+      <c r="M37" s="15">
         <v>8252</v>
       </c>
-      <c r="I37" s="15">
+      <c r="N37" s="15">
         <v>9031</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1311,8 +1761,13 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1321,8 +1776,13 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1331,10 +1791,15 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1353,8 +1818,23 @@
       <c r="I41" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1363,294 +1843,479 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
+        <v>41885</v>
+      </c>
+      <c r="F43" s="9">
+        <v>1670</v>
+      </c>
+      <c r="G43" s="9">
+        <v>8360</v>
+      </c>
+      <c r="H43" s="9">
+        <v>2769</v>
+      </c>
+      <c r="I43" s="9">
+        <v>3395</v>
+      </c>
+      <c r="J43" s="9">
         <v>2871</v>
       </c>
-      <c r="F43" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" s="9">
+      <c r="K43" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L43" s="9">
         <v>3179</v>
       </c>
-      <c r="H43" s="9">
+      <c r="M43" s="9">
         <v>2574</v>
       </c>
-      <c r="I43" s="9">
+      <c r="N43" s="9">
         <v>5201</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D44" s="11"/>
-      <c r="E44" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>23</v>
+      <c r="E44" s="11">
+        <v>-22229</v>
+      </c>
+      <c r="F44" s="11">
+        <v>-8557</v>
+      </c>
+      <c r="G44" s="11">
+        <v>-18907</v>
+      </c>
+      <c r="H44" s="11">
+        <v>-8527</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L44" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N44" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9">
+        <v>25751</v>
+      </c>
+      <c r="F45" s="9">
+        <v>25950</v>
+      </c>
+      <c r="G45" s="9">
+        <v>23382</v>
+      </c>
+      <c r="H45" s="9">
+        <v>28711</v>
+      </c>
+      <c r="I45" s="9">
+        <v>33196</v>
+      </c>
+      <c r="J45" s="9">
         <v>35878</v>
       </c>
-      <c r="F45" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" s="9">
+      <c r="K45" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L45" s="9">
         <v>51203</v>
       </c>
-      <c r="H45" s="9">
+      <c r="M45" s="9">
         <v>45404</v>
       </c>
-      <c r="I45" s="9">
+      <c r="N45" s="9">
         <v>39552</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11">
+        <v>126480</v>
+      </c>
+      <c r="F46" s="11">
+        <v>123343</v>
+      </c>
+      <c r="G46" s="11">
+        <v>154354</v>
+      </c>
+      <c r="H46" s="11">
+        <v>196261</v>
+      </c>
+      <c r="I46" s="11">
+        <v>260327</v>
+      </c>
+      <c r="J46" s="11">
         <v>188603</v>
       </c>
-      <c r="F46" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G46" s="11">
+      <c r="K46" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L46" s="11">
         <v>328368</v>
       </c>
-      <c r="H46" s="11">
+      <c r="M46" s="11">
         <v>372963</v>
       </c>
-      <c r="I46" s="11">
+      <c r="N46" s="11">
         <v>285760</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9">
+        <v>28738</v>
+      </c>
+      <c r="F47" s="9">
+        <v>34984</v>
+      </c>
+      <c r="G47" s="9">
+        <v>41862</v>
+      </c>
+      <c r="H47" s="9">
+        <v>43677</v>
+      </c>
+      <c r="I47" s="9">
+        <v>41265</v>
+      </c>
+      <c r="J47" s="9">
         <v>52158</v>
       </c>
-      <c r="F47" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" s="9">
+      <c r="K47" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L47" s="9">
         <v>66924</v>
       </c>
-      <c r="H47" s="9">
+      <c r="M47" s="9">
         <v>73268</v>
       </c>
-      <c r="I47" s="9">
+      <c r="N47" s="9">
         <v>86898</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
+        <v>914257</v>
+      </c>
+      <c r="F48" s="11">
+        <v>1267717</v>
+      </c>
+      <c r="G48" s="11">
+        <v>1247975</v>
+      </c>
+      <c r="H48" s="11">
+        <v>1273977</v>
+      </c>
+      <c r="I48" s="11">
+        <v>1343360</v>
+      </c>
+      <c r="J48" s="11">
         <v>1473607</v>
       </c>
-      <c r="F48" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" s="11">
+      <c r="K48" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L48" s="11">
         <v>1728033</v>
       </c>
-      <c r="H48" s="11">
+      <c r="M48" s="11">
         <v>2289821</v>
       </c>
-      <c r="I48" s="11">
+      <c r="N48" s="11">
         <v>2469918</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9">
+        <v>114334</v>
+      </c>
+      <c r="F49" s="9">
+        <v>131210</v>
+      </c>
+      <c r="G49" s="9">
+        <v>132935</v>
+      </c>
+      <c r="H49" s="9">
+        <v>51339</v>
+      </c>
+      <c r="I49" s="9">
+        <v>42875</v>
+      </c>
+      <c r="J49" s="9">
         <v>99098</v>
       </c>
-      <c r="F49" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G49" s="9">
+      <c r="K49" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L49" s="9">
         <v>112023</v>
       </c>
-      <c r="H49" s="9">
+      <c r="M49" s="9">
         <v>161807</v>
       </c>
-      <c r="I49" s="9">
+      <c r="N49" s="9">
         <v>94092</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11">
+        <v>78320</v>
+      </c>
+      <c r="F50" s="11">
+        <v>128454</v>
+      </c>
+      <c r="G50" s="11">
+        <v>160242</v>
+      </c>
+      <c r="H50" s="11">
+        <v>148264</v>
+      </c>
+      <c r="I50" s="11">
+        <v>164921</v>
+      </c>
+      <c r="J50" s="11">
         <v>221988</v>
       </c>
-      <c r="F50" s="11" t="s">
+      <c r="K50" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L50" s="11">
+        <v>199074</v>
+      </c>
+      <c r="M50" s="11">
+        <v>307083</v>
+      </c>
+      <c r="N50" s="11">
+        <v>463089</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G50" s="11">
-        <v>199074</v>
-      </c>
-      <c r="H50" s="11">
-        <v>307083</v>
-      </c>
-      <c r="I50" s="11">
-        <v>463089</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B51" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="C51" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9">
+        <v>92826</v>
+      </c>
+      <c r="F51" s="9">
+        <v>118988</v>
+      </c>
+      <c r="G51" s="9">
+        <v>119750</v>
+      </c>
+      <c r="H51" s="9">
+        <v>108528</v>
+      </c>
+      <c r="I51" s="9">
+        <v>72446</v>
+      </c>
+      <c r="J51" s="9">
         <v>196482</v>
       </c>
-      <c r="F51" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G51" s="9">
+      <c r="K51" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L51" s="9">
         <v>235258</v>
       </c>
-      <c r="H51" s="9">
+      <c r="M51" s="9">
         <v>222534</v>
       </c>
-      <c r="I51" s="9">
+      <c r="N51" s="9">
         <v>243368</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11">
+        <v>0</v>
+      </c>
+      <c r="F52" s="11">
+        <v>27998</v>
+      </c>
+      <c r="G52" s="11">
+        <v>0</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I52" s="11">
+        <v>-22025</v>
+      </c>
+      <c r="J52" s="11">
         <v>-16133</v>
       </c>
-      <c r="F52" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G52" s="11">
+      <c r="K52" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L52" s="11">
         <v>-6800</v>
       </c>
-      <c r="H52" s="11">
+      <c r="M52" s="11">
         <v>-18893</v>
       </c>
-      <c r="I52" s="11">
+      <c r="N52" s="11">
         <v>-13635</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9">
+        <v>6798</v>
+      </c>
+      <c r="F53" s="9">
+        <v>106632</v>
+      </c>
+      <c r="G53" s="9">
+        <v>23947</v>
+      </c>
+      <c r="H53" s="9">
+        <v>12753</v>
+      </c>
+      <c r="I53" s="9">
+        <v>20681</v>
+      </c>
+      <c r="J53" s="9">
         <v>17492</v>
       </c>
-      <c r="F53" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53" s="9">
+      <c r="K53" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L53" s="9">
         <v>66866</v>
       </c>
-      <c r="H53" s="9">
+      <c r="M53" s="9">
         <v>49074</v>
       </c>
-      <c r="I53" s="9">
+      <c r="N53" s="9">
         <v>142975</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="14" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15">
+        <v>1407160</v>
+      </c>
+      <c r="F54" s="15">
+        <v>1958389</v>
+      </c>
+      <c r="G54" s="15">
+        <v>1893900</v>
+      </c>
+      <c r="H54" s="15">
+        <v>1857752</v>
+      </c>
+      <c r="I54" s="15">
+        <v>1960441</v>
+      </c>
+      <c r="J54" s="15">
         <v>2272044</v>
       </c>
-      <c r="F54" s="15">
+      <c r="K54" s="15">
         <v>0</v>
       </c>
-      <c r="G54" s="15">
+      <c r="L54" s="15">
         <v>2784128</v>
       </c>
-      <c r="H54" s="15">
+      <c r="M54" s="15">
         <v>3505635</v>
       </c>
-      <c r="I54" s="15">
+      <c r="N54" s="15">
         <v>3817218</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1659,8 +2324,13 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1669,8 +2339,13 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1679,10 +2354,15 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -1701,8 +2381,23 @@
       <c r="I58" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1711,272 +2406,442 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9">
+        <v>27074984</v>
+      </c>
+      <c r="F60" s="9">
+        <v>829196</v>
+      </c>
+      <c r="G60" s="9">
+        <v>-5687075</v>
+      </c>
+      <c r="H60" s="9">
+        <v>153833333</v>
+      </c>
+      <c r="I60" s="9">
+        <v>12168459</v>
+      </c>
+      <c r="J60" s="9">
         <v>1842207</v>
       </c>
-      <c r="F60" s="9">
+      <c r="K60" s="9">
         <v>-4066160</v>
       </c>
-      <c r="G60" s="9">
+      <c r="L60" s="9">
         <v>62333333</v>
       </c>
-      <c r="H60" s="9">
+      <c r="M60" s="9">
         <v>99000000</v>
       </c>
-      <c r="I60" s="9">
+      <c r="N60" s="9">
         <v>7294530</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D61" s="11"/>
-      <c r="E61" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>23</v>
+      <c r="E61" s="11">
+        <v>252602273</v>
+      </c>
+      <c r="F61" s="11">
+        <v>285233333</v>
+      </c>
+      <c r="G61" s="11">
+        <v>331701754</v>
+      </c>
+      <c r="H61" s="11">
+        <v>258393939</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K61" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L61" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M61" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N61" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9">
+        <v>66712435</v>
+      </c>
+      <c r="F62" s="9">
+        <v>77232143</v>
+      </c>
+      <c r="G62" s="9">
+        <v>94282258</v>
+      </c>
+      <c r="H62" s="9">
+        <v>94134426</v>
+      </c>
+      <c r="I62" s="9">
+        <v>110653333</v>
+      </c>
+      <c r="J62" s="9">
         <v>130941606</v>
       </c>
-      <c r="F62" s="9">
+      <c r="K62" s="9">
         <v>126442804</v>
       </c>
-      <c r="G62" s="9">
+      <c r="L62" s="9">
         <v>167330065</v>
       </c>
-      <c r="H62" s="9">
+      <c r="M62" s="9">
         <v>263976744</v>
       </c>
-      <c r="I62" s="9">
+      <c r="N62" s="9">
         <v>258509804</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
+        <v>34482007</v>
+      </c>
+      <c r="F63" s="11">
+        <v>41431979</v>
+      </c>
+      <c r="G63" s="11">
+        <v>43850568</v>
+      </c>
+      <c r="H63" s="11">
+        <v>46896296</v>
+      </c>
+      <c r="I63" s="11">
+        <v>55247666</v>
+      </c>
+      <c r="J63" s="11">
         <v>62389348</v>
       </c>
-      <c r="F63" s="11">
+      <c r="K63" s="11">
         <v>63035874</v>
       </c>
-      <c r="G63" s="11">
+      <c r="L63" s="11">
         <v>85069430</v>
       </c>
-      <c r="H63" s="11">
+      <c r="M63" s="11">
         <v>110051048</v>
       </c>
-      <c r="I63" s="11">
+      <c r="N63" s="11">
         <v>110119461</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
+        <v>129450450</v>
+      </c>
+      <c r="F64" s="9">
+        <v>150145923</v>
+      </c>
+      <c r="G64" s="9">
+        <v>177381356</v>
+      </c>
+      <c r="H64" s="9">
+        <v>193261062</v>
+      </c>
+      <c r="I64" s="9">
+        <v>208409091</v>
+      </c>
+      <c r="J64" s="9">
         <v>247194313</v>
       </c>
-      <c r="F64" s="9">
+      <c r="K64" s="9">
         <v>246676329</v>
       </c>
-      <c r="G64" s="9">
+      <c r="L64" s="9">
         <v>339715736</v>
       </c>
-      <c r="H64" s="9">
+      <c r="M64" s="9">
         <v>446756098</v>
       </c>
-      <c r="I64" s="9">
+      <c r="N64" s="9">
         <v>447927835</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
+        <v>317120014</v>
+      </c>
+      <c r="F65" s="11">
+        <v>375175200</v>
+      </c>
+      <c r="G65" s="11">
+        <v>406374145</v>
+      </c>
+      <c r="H65" s="11">
+        <v>433915872</v>
+      </c>
+      <c r="I65" s="11">
+        <v>505022556</v>
+      </c>
+      <c r="J65" s="11">
         <v>572496892</v>
       </c>
-      <c r="F65" s="11">
+      <c r="K65" s="11">
         <v>554638134</v>
       </c>
-      <c r="G65" s="11">
+      <c r="L65" s="11">
         <v>848739195</v>
       </c>
-      <c r="H65" s="11">
+      <c r="M65" s="11">
         <v>1118622863</v>
       </c>
-      <c r="I65" s="11">
+      <c r="N65" s="11">
         <v>1096279627</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9">
+        <v>243782516</v>
+      </c>
+      <c r="F66" s="9">
+        <v>294853933</v>
+      </c>
+      <c r="G66" s="9">
+        <v>265339321</v>
+      </c>
+      <c r="H66" s="9">
+        <v>264634021</v>
+      </c>
+      <c r="I66" s="9">
+        <v>252205882</v>
+      </c>
+      <c r="J66" s="9">
         <v>254097436</v>
       </c>
-      <c r="F66" s="9">
+      <c r="K66" s="9">
         <v>299788889</v>
       </c>
-      <c r="G66" s="9">
+      <c r="L66" s="9">
         <v>335398204</v>
       </c>
-      <c r="H66" s="9">
+      <c r="M66" s="9">
         <v>451974860</v>
       </c>
-      <c r="I66" s="9">
+      <c r="N66" s="9">
         <v>627280000</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11">
+        <v>59378317</v>
+      </c>
+      <c r="F67" s="11">
+        <v>67183054</v>
+      </c>
+      <c r="G67" s="11">
+        <v>71282028</v>
+      </c>
+      <c r="H67" s="11">
+        <v>74094953</v>
+      </c>
+      <c r="I67" s="11">
+        <v>104711746</v>
+      </c>
+      <c r="J67" s="11">
         <v>116102510</v>
       </c>
-      <c r="F67" s="11">
+      <c r="K67" s="11">
         <v>114488876</v>
       </c>
-      <c r="G67" s="11">
+      <c r="L67" s="11">
         <v>129521145</v>
       </c>
-      <c r="H67" s="11">
+      <c r="M67" s="11">
         <v>193621059</v>
       </c>
-      <c r="I67" s="11">
+      <c r="N67" s="11">
         <v>201430622</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9">
+        <v>134921512</v>
+      </c>
+      <c r="F68" s="9">
+        <v>125514768</v>
+      </c>
+      <c r="G68" s="9">
+        <v>157773386</v>
+      </c>
+      <c r="H68" s="9">
+        <v>123327273</v>
+      </c>
+      <c r="I68" s="9">
+        <v>416356322</v>
+      </c>
+      <c r="J68" s="9">
         <v>233074733</v>
       </c>
-      <c r="F68" s="9">
+      <c r="K68" s="9">
         <v>341738063</v>
       </c>
-      <c r="G68" s="9">
+      <c r="L68" s="9">
         <v>389500000</v>
       </c>
-      <c r="H68" s="9">
+      <c r="M68" s="9">
         <v>438059055</v>
       </c>
-      <c r="I68" s="9">
+      <c r="N68" s="9">
         <v>421051903</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D69" s="11"/>
-      <c r="E69" s="11">
+      <c r="E69" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I69" s="11">
+        <v>286038961</v>
+      </c>
+      <c r="J69" s="11">
         <v>436027027</v>
       </c>
-      <c r="F69" s="11">
+      <c r="K69" s="11">
         <v>408518519</v>
       </c>
-      <c r="G69" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H69" s="11">
+      <c r="L69" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M69" s="11">
         <v>674750000</v>
       </c>
-      <c r="I69" s="11">
+      <c r="N69" s="11">
         <v>1515000000</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9">
+        <v>522923077</v>
+      </c>
+      <c r="F70" s="9">
+        <v>662310559</v>
+      </c>
+      <c r="G70" s="9">
+        <v>704323529</v>
+      </c>
+      <c r="H70" s="9">
+        <v>850200000</v>
+      </c>
+      <c r="I70" s="9">
+        <v>861708333</v>
+      </c>
+      <c r="J70" s="9">
         <v>874550000</v>
       </c>
-      <c r="F70" s="9">
+      <c r="K70" s="9">
         <v>807268293</v>
       </c>
-      <c r="G70" s="9">
+      <c r="L70" s="9">
         <v>998000000</v>
       </c>
-      <c r="H70" s="9">
+      <c r="M70" s="9">
         <v>1635800000</v>
       </c>
-      <c r="I70" s="9">
+      <c r="N70" s="9">
         <v>1361666667</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1985,8 +2850,13 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1995,8 +2865,13 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2005,10 +2880,15 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -2027,8 +2907,23 @@
       <c r="I74" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J74" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L74" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M74" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N74" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2037,294 +2932,479 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9">
+        <v>-38644</v>
+      </c>
+      <c r="F76" s="9">
+        <v>-1553</v>
+      </c>
+      <c r="G76" s="9">
+        <v>-9629</v>
+      </c>
+      <c r="H76" s="9">
+        <v>-2495</v>
+      </c>
+      <c r="I76" s="9">
+        <v>-12811</v>
+      </c>
+      <c r="J76" s="9">
         <v>-2524</v>
       </c>
-      <c r="F76" s="9">
+      <c r="K76" s="9">
         <v>-12004</v>
       </c>
-      <c r="G76" s="9">
+      <c r="L76" s="9">
         <v>-5260</v>
       </c>
-      <c r="H76" s="9">
+      <c r="M76" s="9">
         <v>-3409</v>
       </c>
-      <c r="I76" s="9">
+      <c r="N76" s="9">
         <v>-6828</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D77" s="11"/>
-      <c r="E77" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F77" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G77" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H77" s="11" t="s">
-        <v>23</v>
+      <c r="E77" s="11">
+        <v>21717</v>
+      </c>
+      <c r="F77" s="11">
+        <v>5333</v>
+      </c>
+      <c r="G77" s="11">
+        <v>-27050</v>
+      </c>
+      <c r="H77" s="11">
+        <v>0</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J77" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K77" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L77" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M77" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N77" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9">
+        <v>-24719</v>
+      </c>
+      <c r="F78" s="9">
+        <v>-27591</v>
+      </c>
+      <c r="G78" s="9">
+        <v>-31144</v>
+      </c>
+      <c r="H78" s="9">
+        <v>-33436</v>
+      </c>
+      <c r="I78" s="9">
+        <v>-37466</v>
+      </c>
+      <c r="J78" s="9">
         <v>-36810</v>
       </c>
-      <c r="F78" s="9">
+      <c r="K78" s="9">
         <v>-37789</v>
       </c>
-      <c r="G78" s="9">
+      <c r="L78" s="9">
         <v>-51305</v>
       </c>
-      <c r="H78" s="9">
+      <c r="M78" s="9">
         <v>-42403</v>
       </c>
-      <c r="I78" s="9">
+      <c r="N78" s="9">
         <v>-36248</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11">
+        <v>-86114</v>
+      </c>
+      <c r="F79" s="11">
+        <v>-91594</v>
+      </c>
+      <c r="G79" s="11">
+        <v>-135882</v>
+      </c>
+      <c r="H79" s="11">
+        <v>-172165</v>
+      </c>
+      <c r="I79" s="11">
+        <v>-219563</v>
+      </c>
+      <c r="J79" s="11">
         <v>-159245</v>
       </c>
-      <c r="F79" s="11">
+      <c r="K79" s="11">
         <v>-176716</v>
       </c>
-      <c r="G79" s="11">
+      <c r="L79" s="11">
         <v>-254218</v>
       </c>
-      <c r="H79" s="11">
+      <c r="M79" s="11">
         <v>-287473</v>
       </c>
-      <c r="I79" s="11">
+      <c r="N79" s="11">
         <v>-231937</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9">
+        <v>-26028</v>
+      </c>
+      <c r="F80" s="9">
+        <v>-32535</v>
+      </c>
+      <c r="G80" s="9">
+        <v>-43560</v>
+      </c>
+      <c r="H80" s="9">
+        <v>-47194</v>
+      </c>
+      <c r="I80" s="9">
+        <v>-47933</v>
+      </c>
+      <c r="J80" s="9">
         <v>-56055</v>
       </c>
-      <c r="F80" s="9">
+      <c r="K80" s="9">
         <v>-62366</v>
       </c>
-      <c r="G80" s="9">
+      <c r="L80" s="9">
         <v>-70305</v>
       </c>
-      <c r="H80" s="9">
+      <c r="M80" s="9">
         <v>-52116</v>
       </c>
-      <c r="I80" s="9">
+      <c r="N80" s="9">
         <v>-77040</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11">
+        <v>-729576</v>
+      </c>
+      <c r="F81" s="11">
+        <v>-1128682</v>
+      </c>
+      <c r="G81" s="11">
+        <v>-1013816</v>
+      </c>
+      <c r="H81" s="11">
+        <v>-1068872</v>
+      </c>
+      <c r="I81" s="11">
+        <v>-1077440</v>
+      </c>
+      <c r="J81" s="11">
         <v>-1183750</v>
       </c>
-      <c r="F81" s="11">
+      <c r="K81" s="11">
         <v>-1181163</v>
       </c>
-      <c r="G81" s="11">
+      <c r="L81" s="11">
         <v>-1304111</v>
       </c>
-      <c r="H81" s="11">
+      <c r="M81" s="11">
         <v>-1506996</v>
       </c>
-      <c r="I81" s="11">
+      <c r="N81" s="11">
         <v>-1818573</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9">
+        <v>-99239</v>
+      </c>
+      <c r="F82" s="9">
+        <v>-113893</v>
+      </c>
+      <c r="G82" s="9">
+        <v>-108222</v>
+      </c>
+      <c r="H82" s="9">
+        <v>-51071</v>
+      </c>
+      <c r="I82" s="9">
+        <v>-45363</v>
+      </c>
+      <c r="J82" s="9">
         <v>-73728</v>
       </c>
-      <c r="F82" s="9">
+      <c r="K82" s="9">
         <v>-110783</v>
       </c>
-      <c r="G82" s="9">
+      <c r="L82" s="9">
         <v>-97863</v>
       </c>
-      <c r="H82" s="9">
+      <c r="M82" s="9">
         <v>-138959</v>
       </c>
-      <c r="I82" s="9">
+      <c r="N82" s="9">
         <v>-71577</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11">
+        <v>-76756</v>
+      </c>
+      <c r="F83" s="11">
+        <v>-120042</v>
+      </c>
+      <c r="G83" s="11">
+        <v>-161833</v>
+      </c>
+      <c r="H83" s="11">
+        <v>-163767</v>
+      </c>
+      <c r="I83" s="11">
+        <v>-155137</v>
+      </c>
+      <c r="J83" s="11">
         <v>-201305</v>
       </c>
-      <c r="F83" s="11">
+      <c r="K83" s="11">
         <v>-184179</v>
       </c>
-      <c r="G83" s="11">
+      <c r="L83" s="11">
         <v>-201516</v>
       </c>
-      <c r="H83" s="11">
+      <c r="M83" s="11">
         <v>-251726</v>
       </c>
-      <c r="I83" s="11">
+      <c r="N83" s="11">
         <v>-348444</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9">
+        <v>-77145</v>
+      </c>
+      <c r="F84" s="9">
+        <v>-95927</v>
+      </c>
+      <c r="G84" s="9">
+        <v>-152410</v>
+      </c>
+      <c r="H84" s="9">
+        <v>-104982</v>
+      </c>
+      <c r="I84" s="9">
+        <v>-70528</v>
+      </c>
+      <c r="J84" s="9">
         <v>-189952</v>
       </c>
-      <c r="F84" s="9">
+      <c r="K84" s="9">
         <v>-208622</v>
       </c>
-      <c r="G84" s="9">
+      <c r="L84" s="9">
         <v>-295095</v>
       </c>
-      <c r="H84" s="9">
+      <c r="M84" s="9">
         <v>-149626</v>
       </c>
-      <c r="I84" s="9">
+      <c r="N84" s="9">
         <v>-236545</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
-        <v>10914</v>
+        <v>0</v>
       </c>
       <c r="F85" s="11">
-        <v>-27141</v>
+        <v>0</v>
       </c>
       <c r="G85" s="11">
         <v>0</v>
       </c>
-      <c r="H85" s="11">
+      <c r="H85" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I85" s="11">
+        <v>16227</v>
+      </c>
+      <c r="J85" s="11">
+        <v>10914</v>
+      </c>
+      <c r="K85" s="11">
+        <v>-27141</v>
+      </c>
+      <c r="L85" s="11">
         <v>0</v>
       </c>
-      <c r="I85" s="11">
+      <c r="M85" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N85" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9">
+        <v>-4981</v>
+      </c>
+      <c r="F86" s="9">
+        <v>-87034</v>
+      </c>
+      <c r="G86" s="9">
+        <v>-11651</v>
+      </c>
+      <c r="H86" s="9">
+        <v>-10085</v>
+      </c>
+      <c r="I86" s="9">
+        <v>-21553</v>
+      </c>
+      <c r="J86" s="9">
         <v>-14305</v>
       </c>
-      <c r="F86" s="9">
+      <c r="K86" s="9">
         <v>-29996</v>
       </c>
-      <c r="G86" s="9">
+      <c r="L86" s="9">
         <v>-51016</v>
       </c>
-      <c r="H86" s="9">
+      <c r="M86" s="9">
         <v>-57261</v>
       </c>
-      <c r="I86" s="9">
+      <c r="N86" s="9">
         <v>-121835</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="14" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15">
+        <v>-1141485</v>
+      </c>
+      <c r="F87" s="15">
+        <v>-1693518</v>
+      </c>
+      <c r="G87" s="15">
+        <v>-1695197</v>
+      </c>
+      <c r="H87" s="15">
+        <v>-1654067</v>
+      </c>
+      <c r="I87" s="15">
+        <v>-1671567</v>
+      </c>
+      <c r="J87" s="15">
         <v>-1906760</v>
       </c>
-      <c r="F87" s="15">
+      <c r="K87" s="15">
         <v>-2030759</v>
       </c>
-      <c r="G87" s="15">
+      <c r="L87" s="15">
         <v>-2330689</v>
       </c>
-      <c r="H87" s="15">
+      <c r="M87" s="15">
         <v>-2489969</v>
       </c>
-      <c r="I87" s="15">
+      <c r="N87" s="15">
         <v>-2949027</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2333,8 +3413,13 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2343,8 +3428,13 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2353,10 +3443,15 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -2375,8 +3470,23 @@
       <c r="I91" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L91" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M91" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N91" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2385,290 +3495,475 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9">
+        <v>3241</v>
+      </c>
+      <c r="F93" s="9">
+        <v>117</v>
+      </c>
+      <c r="G93" s="9">
+        <v>-1269</v>
+      </c>
+      <c r="H93" s="9">
+        <v>274</v>
+      </c>
+      <c r="I93" s="9">
+        <v>-9416</v>
+      </c>
+      <c r="J93" s="9">
         <v>348</v>
       </c>
-      <c r="F93" s="9">
+      <c r="K93" s="9">
         <v>-6657</v>
       </c>
-      <c r="G93" s="9">
+      <c r="L93" s="9">
         <v>-2081</v>
       </c>
-      <c r="H93" s="9">
+      <c r="M93" s="9">
         <v>-835</v>
       </c>
-      <c r="I93" s="9">
+      <c r="N93" s="9">
         <v>-1627</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D94" s="11"/>
-      <c r="E94" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F94" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G94" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H94" s="11" t="s">
-        <v>23</v>
+      <c r="E94" s="11">
+        <v>-512</v>
+      </c>
+      <c r="F94" s="11">
+        <v>-3224</v>
+      </c>
+      <c r="G94" s="11">
+        <v>-45957</v>
+      </c>
+      <c r="H94" s="11">
+        <v>-8527</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J94" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K94" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L94" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M94" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N94" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="9">
+        <v>1032</v>
+      </c>
+      <c r="F95" s="9">
+        <v>-1641</v>
+      </c>
+      <c r="G95" s="9">
+        <v>-7762</v>
+      </c>
+      <c r="H95" s="9">
+        <v>-4725</v>
+      </c>
+      <c r="I95" s="9">
+        <v>-4270</v>
+      </c>
+      <c r="J95" s="9">
         <v>-932</v>
       </c>
-      <c r="F95" s="9">
+      <c r="K95" s="9">
         <v>-3523</v>
       </c>
-      <c r="G95" s="9">
+      <c r="L95" s="9">
         <v>-102</v>
       </c>
-      <c r="H95" s="9">
+      <c r="M95" s="9">
         <v>3001</v>
       </c>
-      <c r="I95" s="9">
+      <c r="N95" s="9">
         <v>3304</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11">
+        <v>40366</v>
+      </c>
+      <c r="F96" s="11">
+        <v>31749</v>
+      </c>
+      <c r="G96" s="11">
+        <v>18472</v>
+      </c>
+      <c r="H96" s="11">
+        <v>24096</v>
+      </c>
+      <c r="I96" s="11">
+        <v>40764</v>
+      </c>
+      <c r="J96" s="11">
         <v>29358</v>
       </c>
-      <c r="F96" s="11">
+      <c r="K96" s="11">
         <v>34139</v>
       </c>
-      <c r="G96" s="11">
+      <c r="L96" s="11">
         <v>74150</v>
       </c>
-      <c r="H96" s="11">
+      <c r="M96" s="11">
         <v>85490</v>
       </c>
-      <c r="I96" s="11">
+      <c r="N96" s="11">
         <v>53823</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9">
+        <v>2710</v>
+      </c>
+      <c r="F97" s="9">
+        <v>2449</v>
+      </c>
+      <c r="G97" s="9">
+        <v>-1698</v>
+      </c>
+      <c r="H97" s="9">
+        <v>-3517</v>
+      </c>
+      <c r="I97" s="9">
+        <v>-6668</v>
+      </c>
+      <c r="J97" s="9">
         <v>-3897</v>
       </c>
-      <c r="F97" s="9">
+      <c r="K97" s="9">
         <v>-11304</v>
       </c>
-      <c r="G97" s="9">
+      <c r="L97" s="9">
         <v>-3381</v>
       </c>
-      <c r="H97" s="9">
+      <c r="M97" s="9">
         <v>21152</v>
       </c>
-      <c r="I97" s="9">
+      <c r="N97" s="9">
         <v>9858</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11">
+        <v>184681</v>
+      </c>
+      <c r="F98" s="11">
+        <v>139035</v>
+      </c>
+      <c r="G98" s="11">
+        <v>234159</v>
+      </c>
+      <c r="H98" s="11">
+        <v>205105</v>
+      </c>
+      <c r="I98" s="11">
+        <v>265920</v>
+      </c>
+      <c r="J98" s="11">
         <v>289857</v>
       </c>
-      <c r="F98" s="11">
+      <c r="K98" s="11">
         <v>186020</v>
       </c>
-      <c r="G98" s="11">
+      <c r="L98" s="11">
         <v>423922</v>
       </c>
-      <c r="H98" s="11">
+      <c r="M98" s="11">
         <v>782825</v>
       </c>
-      <c r="I98" s="11">
+      <c r="N98" s="11">
         <v>651345</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9">
+        <v>15095</v>
+      </c>
+      <c r="F99" s="9">
+        <v>17317</v>
+      </c>
+      <c r="G99" s="9">
+        <v>24713</v>
+      </c>
+      <c r="H99" s="9">
+        <v>268</v>
+      </c>
+      <c r="I99" s="9">
+        <v>-2488</v>
+      </c>
+      <c r="J99" s="9">
         <v>25370</v>
       </c>
-      <c r="F99" s="9">
+      <c r="K99" s="9">
         <v>24122</v>
       </c>
-      <c r="G99" s="9">
+      <c r="L99" s="9">
         <v>14160</v>
       </c>
-      <c r="H99" s="9">
+      <c r="M99" s="9">
         <v>22848</v>
       </c>
-      <c r="I99" s="9">
+      <c r="N99" s="9">
         <v>22515</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
+        <v>1564</v>
+      </c>
+      <c r="F100" s="11">
+        <v>8412</v>
+      </c>
+      <c r="G100" s="11">
+        <v>-1591</v>
+      </c>
+      <c r="H100" s="11">
+        <v>-15503</v>
+      </c>
+      <c r="I100" s="11">
+        <v>9784</v>
+      </c>
+      <c r="J100" s="11">
         <v>20683</v>
       </c>
-      <c r="F100" s="11">
+      <c r="K100" s="11">
         <v>16520</v>
       </c>
-      <c r="G100" s="11">
+      <c r="L100" s="11">
         <v>-2442</v>
       </c>
-      <c r="H100" s="11">
+      <c r="M100" s="11">
         <v>55357</v>
       </c>
-      <c r="I100" s="11">
+      <c r="N100" s="11">
         <v>114645</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9">
+        <v>15681</v>
+      </c>
+      <c r="F101" s="9">
+        <v>23061</v>
+      </c>
+      <c r="G101" s="9">
+        <v>-32660</v>
+      </c>
+      <c r="H101" s="9">
+        <v>3546</v>
+      </c>
+      <c r="I101" s="9">
+        <v>1918</v>
+      </c>
+      <c r="J101" s="9">
         <v>6530</v>
       </c>
-      <c r="F101" s="9">
+      <c r="K101" s="9">
         <v>41872</v>
       </c>
-      <c r="G101" s="9">
+      <c r="L101" s="9">
         <v>-59837</v>
       </c>
-      <c r="H101" s="9">
+      <c r="M101" s="9">
         <v>72908</v>
       </c>
-      <c r="I101" s="9">
+      <c r="N101" s="9">
         <v>6823</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
         <v>0</v>
       </c>
       <c r="F102" s="11">
-        <v>5798</v>
+        <v>0</v>
       </c>
       <c r="G102" s="11">
         <v>0</v>
       </c>
-      <c r="H102" s="11">
+      <c r="H102" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I102" s="11">
+        <v>-5798</v>
+      </c>
+      <c r="J102" s="11">
         <v>0</v>
       </c>
-      <c r="I102" s="11">
+      <c r="K102" s="11">
+        <v>5798</v>
+      </c>
+      <c r="L102" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M102" s="11">
+        <v>0</v>
+      </c>
+      <c r="N102" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
+        <v>1817</v>
+      </c>
+      <c r="F103" s="9">
+        <v>19598</v>
+      </c>
+      <c r="G103" s="9">
+        <v>12296</v>
+      </c>
+      <c r="H103" s="9">
+        <v>2668</v>
+      </c>
+      <c r="I103" s="9">
+        <v>-872</v>
+      </c>
+      <c r="J103" s="9">
         <v>3186</v>
       </c>
-      <c r="F103" s="9">
+      <c r="K103" s="9">
         <v>3102</v>
       </c>
-      <c r="G103" s="9">
+      <c r="L103" s="9">
         <v>15850</v>
       </c>
-      <c r="H103" s="9">
+      <c r="M103" s="9">
         <v>-8187</v>
       </c>
-      <c r="I103" s="9">
+      <c r="N103" s="9">
         <v>21140</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="14" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C104" s="15"/>
       <c r="D104" s="15"/>
       <c r="E104" s="15">
+        <v>265675</v>
+      </c>
+      <c r="F104" s="15">
+        <v>236873</v>
+      </c>
+      <c r="G104" s="15">
+        <v>198703</v>
+      </c>
+      <c r="H104" s="15">
+        <v>203685</v>
+      </c>
+      <c r="I104" s="15">
+        <v>288874</v>
+      </c>
+      <c r="J104" s="15">
         <v>370503</v>
       </c>
-      <c r="F104" s="15">
+      <c r="K104" s="15">
         <v>290089</v>
       </c>
-      <c r="G104" s="15">
+      <c r="L104" s="15">
         <v>460239</v>
       </c>
-      <c r="H104" s="15">
+      <c r="M104" s="15">
         <v>1034559</v>
       </c>
-      <c r="I104" s="15">
+      <c r="N104" s="15">
         <v>881826</v>
       </c>
     </row>
